--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning\tds\tds_lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B01F3-C32F-42F9-B680-97DA021287AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5514E0D8-97AB-49BA-815A-E2084B5D9F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="4635" windowWidth="21600" windowHeight="11385" xr2:uid="{5DB5DD70-6865-4223-BA48-9E9936F79A68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DB5DD70-6865-4223-BA48-9E9936F79A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,8 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,12 +473,13 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -481,44 +488,44 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
